--- a/£BRBY.xlsx
+++ b/£BRBY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F1417D-6392-419E-A412-36F15893F12C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE037B-24E5-4A2D-853B-967171155926}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{13476E2F-93ED-400C-878F-4468EAB93119}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>£BRBY</t>
   </si>
@@ -110,6 +110,270 @@
   </si>
   <si>
     <t>London, UK</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>EV/S</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>EV/E</t>
+  </si>
+  <si>
+    <t>H118</t>
+  </si>
+  <si>
+    <t>H218</t>
+  </si>
+  <si>
+    <t>H119</t>
+  </si>
+  <si>
+    <t>H219</t>
+  </si>
+  <si>
+    <t>H120</t>
+  </si>
+  <si>
+    <t>H220</t>
+  </si>
+  <si>
+    <t>H121</t>
+  </si>
+  <si>
+    <t>H221</t>
+  </si>
+  <si>
+    <t>H122</t>
+  </si>
+  <si>
+    <t>H222</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue H/H</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>Retail Y/Y</t>
+  </si>
+  <si>
+    <t>Other Operating Income</t>
+  </si>
+  <si>
+    <t>Opeating Income</t>
+  </si>
+  <si>
+    <t>Finance Income</t>
+  </si>
+  <si>
+    <t>Finance Expenses</t>
+  </si>
+  <si>
+    <t>Other Finance Charge</t>
+  </si>
+  <si>
+    <t>Net Finance Expense</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/R</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Total NCA</t>
+  </si>
+  <si>
+    <t>Derivative Financial Assets</t>
+  </si>
+  <si>
+    <t>Income Tax Receivables</t>
+  </si>
+  <si>
+    <t>Held for Sale</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/P</t>
+  </si>
+  <si>
+    <t>Lease Liabilities</t>
+  </si>
+  <si>
+    <t>Borrowings</t>
+  </si>
+  <si>
+    <t>Retirement Benefit Obligation</t>
+  </si>
+  <si>
+    <t>Provisions for Other Liabilities</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Bank Overdrafts</t>
+  </si>
+  <si>
+    <t>Derivative Financial Liabilities</t>
+  </si>
+  <si>
+    <t>Income Tax Liabilities</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>Inventory Y/Y</t>
+  </si>
+  <si>
+    <t>Inventory H/H</t>
+  </si>
+  <si>
+    <t>Inventory/Revenue</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>ROCE</t>
+  </si>
+  <si>
+    <t>High-end Luxury fashion goods, brand name licensed to fragrants &amp; cosmetics</t>
   </si>
 </sst>
 </file>
@@ -119,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +404,58 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +477,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0E1FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,22 +582,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -281,16 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,12 +626,101 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF0E1FF"/>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -698,7 +1096,7 @@
   <dimension ref="A2:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:N20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,6 +1108,16 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -720,460 +1128,494 @@
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="G5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>20.806000000000001</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>386.48</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
+      <c r="D7" s="11" t="str">
+        <f>$C$29</f>
+        <v>H122</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="13">
         <f>C6*C7</f>
         <v>8041.1028800000004</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
+      <c r="D8" s="11"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11" t="str">
+        <f t="shared" ref="D9:D11" si="0">$C$29</f>
+        <v>H122</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>H122</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <f>C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
+      <c r="D11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>H122</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="14">
         <f>C8-C11</f>
         <v>8041.1028800000004</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
+      <c r="D12" s="12"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="23"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="23">
         <v>1856</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="27"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="60">
+        <f>'Financial Model'!K3</f>
+        <v>44882</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="31"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -1184,32 +1626,764 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{C8C09C26-35BE-498E-B037-C6D0149326A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A2D8A8-3894-4F23-A898-A197306DFF17}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AE88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="C21:D22"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="32"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="32"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="32"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="32"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="32"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="2:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="40">
+        <v>44464</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="40">
+        <v>44860</v>
+      </c>
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="2:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38">
+        <v>44882</v>
+      </c>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="2:31" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="51">
+        <v>944</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="51">
+        <v>1061</v>
+      </c>
+      <c r="L4" s="52"/>
+    </row>
+    <row r="5" spans="2:31" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="51">
+        <v>249</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="51">
+        <v>263</v>
+      </c>
+      <c r="L5" s="52"/>
+    </row>
+    <row r="6" spans="2:31" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="51">
+        <v>20</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="51">
+        <v>21</v>
+      </c>
+      <c r="L6" s="52"/>
+    </row>
+    <row r="7" spans="2:31" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="46">
+        <f>SUM(I4:I6)</f>
+        <v>1213</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="46">
+        <f>SUM(K4:K6)</f>
+        <v>1345</v>
+      </c>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="2:31" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="48">
+        <v>366</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="K8" s="48">
+        <v>402</v>
+      </c>
+      <c r="L8" s="49"/>
+    </row>
+    <row r="9" spans="2:31" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="46">
+        <f>I7-I8</f>
+        <v>847</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46">
+        <f>K7-K8</f>
+        <v>943</v>
+      </c>
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="1">
+        <v>658</v>
+      </c>
+      <c r="K10" s="1">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="46">
+        <f>I9-I10+I11</f>
+        <v>207</v>
+      </c>
+      <c r="J12" s="41"/>
+      <c r="K12" s="46">
+        <f>K9-K10+K11</f>
+        <v>263</v>
+      </c>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I13-I14-I15</f>
+        <v>-16</v>
+      </c>
+      <c r="K16" s="1">
+        <f>K13-K14-K15</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="48">
+        <f>I12+I16</f>
+        <v>191</v>
+      </c>
+      <c r="K17" s="48">
+        <f>K12+K16</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="1">
+        <v>46</v>
+      </c>
+      <c r="K18" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="2">
+        <f>I17-I18</f>
+        <v>145</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="2">
+        <f>K17-K18</f>
+        <v>194</v>
+      </c>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="42">
+        <f>K7/I7-1</f>
+        <v>0.10882110469909323</v>
+      </c>
+      <c r="L23" s="43"/>
+    </row>
+    <row r="24" spans="2:12" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="54">
+        <f>K4/I4-1</f>
+        <v>0.12394067796610164</v>
+      </c>
+      <c r="L24" s="55"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="44">
+        <f>I9/I7</f>
+        <v>0.69826875515251441</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="44">
+        <f>K9/K7</f>
+        <v>0.70111524163568772</v>
+      </c>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="44">
+        <f>I12/I7</f>
+        <v>0.17065127782357792</v>
+      </c>
+      <c r="K29" s="44">
+        <f>K12/K7</f>
+        <v>0.19553903345724907</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="44">
+        <f>I19/I7</f>
+        <v>0.11953833470733718</v>
+      </c>
+      <c r="K30" s="44">
+        <f>K19/K7</f>
+        <v>0.14423791821561338</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="44">
+        <f>I18/I17</f>
+        <v>0.24083769633507854</v>
+      </c>
+      <c r="J31" s="45"/>
+      <c r="K31" s="44">
+        <f>K18/K17</f>
+        <v>0.22709163346613545</v>
+      </c>
+      <c r="L31" s="45"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="L42" s="41"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="L44" s="41"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="L46" s="41"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="L52" s="41"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="L58" s="41"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="L60" s="41"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="L71" s="58"/>
+    </row>
+    <row r="72" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="L72" s="58"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{642E41A0-B3FF-45FB-8550-5FCB55A4F07C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K7" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>